--- a/Geometry/Triangle/tables/inp.xlsx
+++ b/Geometry/Triangle/tables/inp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE9881F-5013-954B-B953-6AADD2B6FF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9638B3C9-E48F-984D-98FC-65A9FD43B6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="11">
   <si>
     <t>Parameter</t>
   </si>
@@ -33,13 +33,22 @@
     <t>Value</t>
   </si>
   <si>
-    <t>a,p</t>
-  </si>
-  <si>
-    <t>p,q</t>
-  </si>
-  <si>
-    <t>c,r</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -63,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -86,13 +95,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,47 +453,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BF731-653B-2440-82D0-D6EFBF5431AE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>